--- a/RASPBERRY-3B/RASPBERRY-3B-it_eval.xlsx
+++ b/RASPBERRY-3B/RASPBERRY-3B-it_eval.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabioMatricardi\Documents\DEV\Models_Autotest\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableLLMs\ManualEval_GGUFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FED62B-F480-46C1-A0BD-BF218D3C15E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421F5991-378B-4304-8428-F3A7D2F179D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28545" yWindow="0" windowWidth="26790" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1267" windowWidth="25755" windowHeight="14933" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>introduction</t>
   </si>
@@ -113,16 +113,13 @@
     <t>completely out of user intent</t>
   </si>
   <si>
-    <t>3t</t>
-  </si>
-  <si>
-    <t>here are only 3</t>
-  </si>
-  <si>
     <t>even though the entire process doesn't look like the original REFLECTION, the model is thiNKING during the steps. And creating the output in the process. there are some &lt;/a&gt; tags on the way.</t>
   </si>
   <si>
     <t>SOURCE: https://github.com/fabiomatricardi/YouAreTheBenchmark/raw/main/RASPBERRY-3B/raspberry-3B_CPP_WRK8E_log.txt</t>
+  </si>
+  <si>
+    <t>there are only 3</t>
   </si>
 </sst>
 </file>
@@ -329,7 +326,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -809,21 +806,21 @@
   <dimension ref="C4:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="75.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" customWidth="1"/>
+    <col min="5" max="5" width="51.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.86328125" customWidth="1"/>
+    <col min="10" max="10" width="20.3984375" customWidth="1"/>
+    <col min="12" max="12" width="3.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="3:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="18" t="s">
@@ -837,7 +834,7 @@
       <c r="K5" s="18"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
         <v>14</v>
@@ -853,7 +850,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="3:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" ht="36" x14ac:dyDescent="0.45">
       <c r="C7" s="4"/>
       <c r="D7" s="7">
         <v>1</v>
@@ -869,7 +866,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" ht="18" x14ac:dyDescent="0.45">
       <c r="C8" s="4"/>
       <c r="D8" s="7">
         <v>2</v>
@@ -883,7 +880,7 @@
       <c r="G8" s="10"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="3:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" ht="36" x14ac:dyDescent="0.45">
       <c r="C9" s="4"/>
       <c r="D9" s="7">
         <v>3</v>
@@ -899,7 +896,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" ht="18" x14ac:dyDescent="0.45">
       <c r="C10" s="4"/>
       <c r="D10" s="7">
         <v>4</v>
@@ -913,7 +910,7 @@
       <c r="G10" s="10"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" ht="18" x14ac:dyDescent="0.45">
       <c r="C11" s="4"/>
       <c r="D11" s="7">
         <v>5</v>
@@ -927,7 +924,7 @@
       <c r="G11" s="16"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" ht="18" x14ac:dyDescent="0.45">
       <c r="C12" s="4"/>
       <c r="D12" s="7">
         <v>6</v>
@@ -943,7 +940,7 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="3:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" ht="36" x14ac:dyDescent="0.45">
       <c r="C13" s="4"/>
       <c r="D13" s="7">
         <v>7</v>
@@ -957,7 +954,7 @@
       <c r="G13" s="10"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" ht="18" x14ac:dyDescent="0.45">
       <c r="C14" s="4"/>
       <c r="D14" s="7">
         <v>8</v>
@@ -973,7 +970,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" ht="18" x14ac:dyDescent="0.45">
       <c r="C15" s="4"/>
       <c r="D15" s="7">
         <v>9</v>
@@ -987,7 +984,7 @@
       <c r="G15" s="10"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12" ht="18" x14ac:dyDescent="0.45">
       <c r="C16" s="4"/>
       <c r="D16" s="7">
         <v>10</v>
@@ -1003,7 +1000,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" ht="18" x14ac:dyDescent="0.45">
       <c r="C17" s="4"/>
       <c r="D17" s="7">
         <v>11</v>
@@ -1017,7 +1014,7 @@
       <c r="G17" s="10"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" ht="18" x14ac:dyDescent="0.45">
       <c r="C18" s="4"/>
       <c r="D18" s="7">
         <v>12</v>
@@ -1025,15 +1022,15 @@
       <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>25</v>
+      <c r="F18" s="9">
+        <v>3</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" ht="18" x14ac:dyDescent="0.45">
       <c r="C19" s="4"/>
       <c r="D19" s="7">
         <v>13</v>
@@ -1047,7 +1044,7 @@
       <c r="G19" s="10"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="3:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" ht="54" x14ac:dyDescent="0.45">
       <c r="C20" s="4"/>
       <c r="D20" s="7">
         <v>14</v>
@@ -1059,11 +1056,11 @@
         <v>5</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="3:12" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" ht="23.25" x14ac:dyDescent="0.45">
       <c r="C21" s="4"/>
       <c r="D21" s="7"/>
       <c r="E21" s="12" t="s">
@@ -1071,22 +1068,22 @@
       </c>
       <c r="F21" s="12">
         <f>SUBTOTAL(109,F7:F20)</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G21" s="10"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="4"/>
       <c r="D22" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C23" s="13"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
